--- a/Data_preparation/datasets/final_data/ZEBRA_TECH_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/ZEBRA_TECH_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42098</v>
       </c>
       <c r="D2">
-        <v>32.50155454136809</v>
+        <v>90.62999725341795</v>
       </c>
       <c r="E2">
-        <v>32.94282531738281</v>
+        <v>92.08000183105467</v>
       </c>
       <c r="F2">
-        <v>34.21047339167337</v>
+        <v>98.29000091552734</v>
       </c>
       <c r="G2">
-        <v>32.26888374560449</v>
+        <v>87.98000335693359</v>
       </c>
       <c r="H2">
-        <v>450687724</v>
+        <v>50845151</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>4623108160</v>
@@ -879,22 +768,22 @@
         <v>42189</v>
       </c>
       <c r="D3">
-        <v>19.36546186976121</v>
+        <v>112.620002746582</v>
       </c>
       <c r="E3">
-        <v>20.08906555175781</v>
+        <v>107.629997253418</v>
       </c>
       <c r="F3">
-        <v>20.242831549833</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>19.17551655018982</v>
+        <v>103.5</v>
       </c>
       <c r="H3">
-        <v>174270076</v>
+        <v>50845151</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>5815450070</v>
@@ -995,22 +884,22 @@
         <v>42280</v>
       </c>
       <c r="D4">
-        <v>68.44008297911779</v>
+        <v>76.19999694824219</v>
       </c>
       <c r="E4">
-        <v>76.90107727050781</v>
+        <v>76.90000152587891</v>
       </c>
       <c r="F4">
-        <v>78.55369160257169</v>
+        <v>80.83000183105469</v>
       </c>
       <c r="G4">
-        <v>67.96507621452463</v>
+        <v>71.20999908447266</v>
       </c>
       <c r="H4">
-        <v>952000000</v>
+        <v>50845151</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>4099776887</v>
@@ -1111,22 +1000,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>67.68000030517578</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>60.40000152587891</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>67.68000030517578</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>54.88999938964844</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>50845151</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>3628784363</v>
@@ -1224,22 +1113,22 @@
         <v>42462</v>
       </c>
       <c r="D6">
-        <v>113.053060611574</v>
+        <v>68.01000213623047</v>
       </c>
       <c r="E6">
-        <v>116.8595962524414</v>
+        <v>62.56000137329102</v>
       </c>
       <c r="F6">
-        <v>120.0499278661556</v>
+        <v>68.48999786376953</v>
       </c>
       <c r="G6">
-        <v>105.6586426163339</v>
+        <v>62.04999923706055</v>
       </c>
       <c r="H6">
-        <v>2168962480</v>
+        <v>50845151</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3553967639</v>
@@ -1340,22 +1229,22 @@
         <v>42553</v>
       </c>
       <c r="D7">
-        <v>13.19996774679334</v>
+        <v>50.0099983215332</v>
       </c>
       <c r="E7">
-        <v>13.69067287445068</v>
+        <v>53.0099983215332</v>
       </c>
       <c r="F7">
-        <v>14.06851604737382</v>
+        <v>53.72000122070312</v>
       </c>
       <c r="G7">
-        <v>12.75833331909089</v>
+        <v>46.13000106811523</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>50845151</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>2602564517</v>
@@ -1456,22 +1345,22 @@
         <v>42644</v>
       </c>
       <c r="D8">
-        <v>49.90532904401199</v>
+        <v>69.13999938964844</v>
       </c>
       <c r="E8">
-        <v>48.90722274780273</v>
+        <v>65.83999633789062</v>
       </c>
       <c r="F8">
-        <v>51.30454387702167</v>
+        <v>70.94999694824219</v>
       </c>
       <c r="G8">
-        <v>45.00807712847811</v>
+        <v>63.84999847412109</v>
       </c>
       <c r="H8">
-        <v>60498713</v>
+        <v>50845151</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>3673103283</v>
@@ -1572,22 +1461,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>86.58000183105469</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>83.66999816894531</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>88.02999877929688</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>50845151</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>4526904205</v>
@@ -1688,22 +1577,22 @@
         <v>42826</v>
       </c>
       <c r="D10">
-        <v>39.22581140273195</v>
+        <v>91.16000366210938</v>
       </c>
       <c r="E10">
-        <v>39.47163009643555</v>
+        <v>94.26999664306641</v>
       </c>
       <c r="F10">
-        <v>39.55064372641578</v>
+        <v>96.54000091552734</v>
       </c>
       <c r="G10">
-        <v>38.41811614637533</v>
+        <v>86.81999969482422</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>50845151</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>4825048789</v>
@@ -1804,22 +1693,22 @@
         <v>42917</v>
       </c>
       <c r="D11">
-        <v>102.0133622053498</v>
+        <v>100.9100036621094</v>
       </c>
       <c r="E11">
-        <v>96.09502410888672</v>
+        <v>101.7200012207031</v>
       </c>
       <c r="F11">
-        <v>103.6407392657914</v>
+        <v>103.6900024414062</v>
       </c>
       <c r="G11">
-        <v>95.4108561422248</v>
+        <v>97.83000183105467</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>50845151</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>5303807727</v>
@@ -1920,22 +1809,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>108.4800033569336</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>115.9899978637695</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>117.4400024414062</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>108.4100036621094</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>50845151</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>5766492699</v>
@@ -2036,22 +1925,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>104.0999984741211</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>123.1600036621094</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>126.4899978637695</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>102.75</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>50845151</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>5521028995</v>
@@ -2164,22 +2053,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>137.8600006103516</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>134.8300018310547</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>146.6999969482422</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>134.2700042724609</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>50845151</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>7411872093</v>
@@ -2292,22 +2181,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>141.8899993896484</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>137.9299926757812</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>150.6600036621094</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>136.1600036621094</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>50845151</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>7649199754</v>
@@ -2420,22 +2309,22 @@
         <v>43372</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>177.7200012207031</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>166.3000030517578</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>177.8000030517578</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>147.8899993896484</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>50845151</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>9494426208</v>
@@ -2536,22 +2425,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>155.9900054931641</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>173.6000061035156</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>179.8099975585938</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>146.5200042724609</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>50845151</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>8567294675</v>
@@ -2664,22 +2553,22 @@
         <v>43554</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>211.2400054931641</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>211.1399993896484</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>237.1499938964844</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>209.5</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>50845151</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>11287485236</v>
@@ -2792,22 +2681,22 @@
         <v>43645</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>214.0899963378907</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>210.8899993896484</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>220.4600067138672</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>177.0599975585938</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>50845151</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>11307602136</v>
@@ -2920,22 +2809,22 @@
         <v>43736</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>207.6100006103516</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>237.8699951171875</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>241.759994506836</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>188.8000030517578</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>50845151</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>10941261637</v>
@@ -3048,22 +2937,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>259.0299987792969</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>239.0200042724609</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>260.3999938964844</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>238.8600006103516</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>50845151</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>13773702340</v>
@@ -3176,22 +3065,22 @@
         <v>43918</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>177.5599975585938</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>229.6600036621093</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>248.2100067138672</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>170.6300048828125</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>50845151</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>9968377084</v>
@@ -3432,22 +3321,22 @@
         <v>44100</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>256.8099975585937</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>283.6400146484375</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>304.5700073242188</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>252.5200042724609</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>50845151</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>13732876236</v>
@@ -3560,22 +3449,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>385.75</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>387.8299865722656</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>419.2099914550781</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>372.4599914550781</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>50845151</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>20491094318</v>
@@ -3688,22 +3577,22 @@
         <v>44289</v>
       </c>
       <c r="D26">
-        <v>483.1199951171875</v>
+        <v>489.9200134277344</v>
       </c>
       <c r="E26">
-        <v>508.3399963378906</v>
+        <v>487.739990234375</v>
       </c>
       <c r="F26">
-        <v>525.4400024414062</v>
+        <v>518.6599731445312</v>
       </c>
       <c r="G26">
-        <v>480.5</v>
+        <v>483.2900085449219</v>
       </c>
       <c r="H26">
-        <v>418600000</v>
+        <v>50845151</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>26294200923</v>
@@ -3816,22 +3705,22 @@
         <v>44380</v>
       </c>
       <c r="D27">
-        <v>578.8200073242188</v>
+        <v>530</v>
       </c>
       <c r="E27">
-        <v>596.02001953125</v>
+        <v>552.47998046875</v>
       </c>
       <c r="F27">
-        <v>616.4500122070312</v>
+        <v>554.219970703125</v>
       </c>
       <c r="G27">
-        <v>543.1699829101562</v>
+        <v>502.6300048828125</v>
       </c>
       <c r="H27">
-        <v>52693110</v>
+        <v>50845151</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>28892867025</v>
@@ -3944,22 +3833,22 @@
         <v>44471</v>
       </c>
       <c r="D28">
-        <v>604.239990234375</v>
+        <v>517.6199951171875</v>
       </c>
       <c r="E28">
-        <v>690.3099975585938</v>
+        <v>533.9500122070312</v>
       </c>
       <c r="F28">
-        <v>690.969970703125</v>
+        <v>543.489990234375</v>
       </c>
       <c r="G28">
-        <v>594.6799926757812</v>
+        <v>491.989990234375</v>
       </c>
       <c r="H28">
-        <v>424926346</v>
+        <v>50845151</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>27287848078</v>
@@ -4072,22 +3961,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>592.0800170898438</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>509.1199951171875</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>599.72998046875</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>462.3200073242188</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>50845151</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>31808375443</v>
@@ -4200,22 +4089,22 @@
         <v>44653</v>
       </c>
       <c r="D30">
-        <v>421.9831085808795</v>
+        <v>414.6300048828125</v>
       </c>
       <c r="E30">
-        <v>415.1985778808594</v>
+        <v>369.6600036621094</v>
       </c>
       <c r="F30">
-        <v>450.9733274615733</v>
+        <v>437.2999877929688</v>
       </c>
       <c r="G30">
-        <v>408.5746965536123</v>
+        <v>368.3500061035156</v>
       </c>
       <c r="H30">
-        <v>143182982</v>
+        <v>50845151</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>21960680830</v>
@@ -4328,22 +4217,22 @@
         <v>44744</v>
       </c>
       <c r="D31">
-        <v>47.91999816894531</v>
+        <v>292.2300109863281</v>
       </c>
       <c r="E31">
-        <v>61.5</v>
+        <v>357.6900024414062</v>
       </c>
       <c r="F31">
-        <v>61.63000106811523</v>
+        <v>358.3900146484375</v>
       </c>
       <c r="G31">
-        <v>43.40999984741211</v>
+        <v>283.7200012207031</v>
       </c>
       <c r="H31">
-        <v>136895573</v>
+        <v>50845151</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>15719488974</v>
@@ -4444,22 +4333,22 @@
         <v>44835</v>
       </c>
       <c r="D32">
-        <v>89.61000061035156</v>
+        <v>264.9400024414062</v>
       </c>
       <c r="E32">
-        <v>80.51000213623047</v>
+        <v>283.2200012207031</v>
       </c>
       <c r="F32">
-        <v>97.31400299072266</v>
+        <v>288.6099853515625</v>
       </c>
       <c r="G32">
-        <v>75.53500366210938</v>
+        <v>248.1699981689453</v>
       </c>
       <c r="H32">
-        <v>323270704</v>
+        <v>50845151</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>13569482441</v>
@@ -4572,22 +4461,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>260.8699951171875</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>316.1799926757812</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>320.1199951171875</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>254.6900024414062</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>50845151</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>13238396505</v>
@@ -4700,22 +4589,22 @@
         <v>45017</v>
       </c>
       <c r="D34">
-        <v>27.09000015258789</v>
+        <v>315.1300048828125</v>
       </c>
       <c r="E34">
-        <v>28.3700008392334</v>
+        <v>288.0299987792969</v>
       </c>
       <c r="F34">
-        <v>30.20000076293945</v>
+        <v>316.2300109863281</v>
       </c>
       <c r="G34">
-        <v>25.52000045776367</v>
+        <v>278.2099914550781</v>
       </c>
       <c r="H34">
-        <v>48253392</v>
+        <v>50845151</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>16346707956</v>
@@ -4828,22 +4717,22 @@
         <v>45108</v>
       </c>
       <c r="D35">
-        <v>62.68228996223018</v>
+        <v>293.8900146484375</v>
       </c>
       <c r="E35">
-        <v>70.53733825683594</v>
+        <v>307.9599914550781</v>
       </c>
       <c r="F35">
-        <v>71.47598872124311</v>
+        <v>320.5499877929688</v>
       </c>
       <c r="G35">
-        <v>59.77740581347258</v>
+        <v>283.5400085449219</v>
       </c>
       <c r="H35">
-        <v>1122466035</v>
+        <v>50845151</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>15214636891</v>
@@ -4944,22 +4833,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>236.5299987792969</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>209.4299926757812</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>236.6999969482422</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>196.1300048828125</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>50845151</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>12143063237</v>
@@ -5060,22 +4949,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>268.5599975585937</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>239.5500030517578</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>270.739990234375</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>236.1900024414062</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>50845151</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>14038120561</v>
@@ -5188,22 +5077,22 @@
         <v>45381</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>302.5899963378906</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>314.5599975585937</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>322.9500122070312</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>266.75</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>50845151</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>15488411929</v>
@@ -5316,22 +5205,22 @@
         <v>45472</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>308.8200073242188</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>351.1900024414062</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>372.9299926757813</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>303.3599853515625</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>50845151</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>15884996169</v>
@@ -5444,22 +5333,22 @@
         <v>45563</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>369.8399963378906</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>381.9700012207031</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>394.5700073242188</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>359.3699951171875</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>50845151</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>19012522539</v>
@@ -5560,22 +5449,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>386.5</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>391.9400024414063</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>427.760009765625</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>376.4299926757813</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>50845151</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>19921238414</v>
@@ -5688,22 +5577,22 @@
         <v>45745</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>280.9599914550781</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>250.3200073242188</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>289.9299926757812</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>205.729995727539</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>50845151</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>14426767814</v>
@@ -5816,22 +5705,22 @@
         <v>45836</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>307.5400085449219</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>339.0199890136719</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>352.6600036621094</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>307.5400085449219</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>50845151</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>15727209168</v>
